--- a/UrbanLadder/TestData/InputData.xlsx
+++ b/UrbanLadder/TestData/InputData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6930" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SearchProduct" sheetId="1" r:id="rId1"/>
     <sheet name="AddressPage" sheetId="2" r:id="rId2"/>
+    <sheet name="ApplyJobDetails" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>productname</t>
   </si>
@@ -51,17 +52,36 @@
   </si>
   <si>
     <t>lakshmi</t>
+  </si>
+  <si>
+    <t>currentCTC</t>
+  </si>
+  <si>
+    <t>ExpectedCTC</t>
+  </si>
+  <si>
+    <t>joining</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>bbbbb</t>
+  </si>
+  <si>
+    <t>2 months</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -664,8 +684,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1015,7 +1037,7 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1045,7 +1067,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2">
@@ -1071,4 +1093,73 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="11.7142857142857"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>7034465136</v>
+      </c>
+      <c r="E2">
+        <v>4.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="abcd@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>